--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6B5F6F8D-408A-41FA-A566-4EEB76BE9F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5379DDA0-EC13-40E1-B814-3E7784EBE063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -638,7 +638,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +769,35 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -955,7 +984,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1070,6 +1099,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1115,9 +1153,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="13" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" xfId="37" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="21" fillId="28" borderId="9" xfId="37" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1473,47 +1518,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H170"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5">
+        <f>COUNTIF(F2:F170, 1)</f>
+        <v>62</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="7">
+        <f>H1/169</f>
+        <v>0.36686390532544377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1529,19 +1586,12 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <f>COUNTIF(F2:F170, 1)</f>
-        <v>60</v>
-      </c>
-      <c r="H2" s="1">
-        <f>G2/169</f>
-        <v>0.35502958579881655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1557,11 +1607,11 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1577,11 +1627,11 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1597,11 +1647,11 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1617,11 +1667,11 @@
       <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1637,11 +1687,11 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1657,11 +1707,11 @@
       <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1677,11 +1727,11 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1697,11 +1747,11 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1717,11 +1767,11 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1737,11 +1787,11 @@
       <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1757,11 +1807,11 @@
       <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1777,11 +1827,11 @@
       <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1797,11 +1847,11 @@
       <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1817,7 +1867,7 @@
       <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1837,7 +1887,7 @@
       <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1857,7 +1907,7 @@
       <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1877,7 +1927,7 @@
       <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1897,7 +1947,7 @@
       <c r="E20" t="s">
         <v>40</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1917,8 +1967,8 @@
       <c r="E21" t="s">
         <v>17</v>
       </c>
-      <c r="F21">
-        <v>0</v>
+      <c r="F21" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1937,7 +1987,7 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1957,7 +2007,7 @@
       <c r="E23" t="s">
         <v>19</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1977,7 +2027,7 @@
       <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1997,8 +2047,8 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25">
-        <v>0</v>
+      <c r="F25" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,7 +2067,7 @@
       <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2037,7 +2087,7 @@
       <c r="E27" t="s">
         <v>49</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2057,7 +2107,7 @@
       <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2077,7 +2127,7 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2097,7 +2147,7 @@
       <c r="E30" t="s">
         <v>25</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2117,7 +2167,7 @@
       <c r="E31" t="s">
         <v>17</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2137,7 +2187,7 @@
       <c r="E32" t="s">
         <v>12</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2157,7 +2207,7 @@
       <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2177,7 +2227,7 @@
       <c r="E34" t="s">
         <v>27</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2197,7 +2247,7 @@
       <c r="E35" t="s">
         <v>23</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2217,7 +2267,7 @@
       <c r="E36" t="s">
         <v>23</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2237,7 +2287,7 @@
       <c r="E37" t="s">
         <v>21</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2257,7 +2307,7 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2277,7 +2327,7 @@
       <c r="E39" t="s">
         <v>62</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2297,7 +2347,7 @@
       <c r="E40" t="s">
         <v>9</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2317,7 +2367,7 @@
       <c r="E41" t="s">
         <v>19</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2337,7 +2387,7 @@
       <c r="E42" t="s">
         <v>21</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2357,7 +2407,7 @@
       <c r="E43" t="s">
         <v>17</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2377,7 +2427,7 @@
       <c r="E44" t="s">
         <v>19</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2397,7 +2447,7 @@
       <c r="E45" t="s">
         <v>12</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2417,7 +2467,7 @@
       <c r="E46" t="s">
         <v>34</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2437,7 +2487,7 @@
       <c r="E47" t="s">
         <v>9</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2457,7 +2507,7 @@
       <c r="E48" t="s">
         <v>74</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2477,7 +2527,7 @@
       <c r="E49" t="s">
         <v>19</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2497,7 +2547,7 @@
       <c r="E50" t="s">
         <v>14</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2517,7 +2567,7 @@
       <c r="E51" t="s">
         <v>23</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2537,7 +2587,7 @@
       <c r="E52" t="s">
         <v>9</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2557,7 +2607,7 @@
       <c r="E53" t="s">
         <v>49</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2577,7 +2627,7 @@
       <c r="E54" t="s">
         <v>25</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2597,7 +2647,7 @@
       <c r="E55" t="s">
         <v>17</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2617,7 +2667,7 @@
       <c r="E56" t="s">
         <v>83</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2637,7 +2687,7 @@
       <c r="E57" t="s">
         <v>62</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2657,7 +2707,7 @@
       <c r="E58" t="s">
         <v>19</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2677,7 +2727,7 @@
       <c r="E59" t="s">
         <v>17</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2697,7 +2747,7 @@
       <c r="E60" t="s">
         <v>23</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2717,7 +2767,7 @@
       <c r="E61" t="s">
         <v>12</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2737,7 +2787,7 @@
       <c r="E62" t="s">
         <v>21</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2757,7 +2807,7 @@
       <c r="E63" t="s">
         <v>34</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2777,7 +2827,7 @@
       <c r="E64" t="s">
         <v>12</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2797,7 +2847,7 @@
       <c r="E65" t="s">
         <v>19</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2817,7 +2867,7 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2837,7 +2887,7 @@
       <c r="E67" t="s">
         <v>25</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2857,7 +2907,7 @@
       <c r="E68" t="s">
         <v>19</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2877,7 +2927,7 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2897,7 +2947,7 @@
       <c r="E70" t="s">
         <v>62</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2917,7 +2967,7 @@
       <c r="E71" t="s">
         <v>23</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2937,7 +2987,7 @@
       <c r="E72" t="s">
         <v>17</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <v>1</v>
       </c>
     </row>
@@ -2957,7 +3007,7 @@
       <c r="E73" t="s">
         <v>23</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2977,7 +3027,7 @@
       <c r="E74" t="s">
         <v>34</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2997,7 +3047,7 @@
       <c r="E75" t="s">
         <v>14</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3017,7 +3067,7 @@
       <c r="E76" t="s">
         <v>27</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3037,7 +3087,7 @@
       <c r="E77" t="s">
         <v>12</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3057,7 +3107,7 @@
       <c r="E78" t="s">
         <v>25</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3077,7 +3127,7 @@
       <c r="E79" t="s">
         <v>9</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3097,7 +3147,7 @@
       <c r="E80" t="s">
         <v>109</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3117,7 +3167,7 @@
       <c r="E81" t="s">
         <v>12</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3137,7 +3187,7 @@
       <c r="E82" t="s">
         <v>9</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3157,7 +3207,7 @@
       <c r="E83" t="s">
         <v>62</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3177,7 +3227,7 @@
       <c r="E84" t="s">
         <v>83</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3197,7 +3247,7 @@
       <c r="E85" t="s">
         <v>17</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3217,7 +3267,7 @@
       <c r="E86" t="s">
         <v>25</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3237,7 +3287,7 @@
       <c r="E87" t="s">
         <v>49</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3257,7 +3307,7 @@
       <c r="E88" t="s">
         <v>23</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3277,7 +3327,7 @@
       <c r="E89" t="s">
         <v>14</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3297,7 +3347,7 @@
       <c r="E90" t="s">
         <v>23</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3317,7 +3367,7 @@
       <c r="E91" t="s">
         <v>74</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3337,7 +3387,7 @@
       <c r="E92" t="s">
         <v>34</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3357,7 +3407,7 @@
       <c r="E93" t="s">
         <v>19</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3377,7 +3427,7 @@
       <c r="E94" t="s">
         <v>12</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3397,7 +3447,7 @@
       <c r="E95" t="s">
         <v>74</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3417,7 +3467,7 @@
       <c r="E96" t="s">
         <v>25</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3437,7 +3487,7 @@
       <c r="E97" t="s">
         <v>23</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3457,7 +3507,7 @@
       <c r="E98" t="s">
         <v>23</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3477,7 +3527,7 @@
       <c r="E99" t="s">
         <v>14</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3497,7 +3547,7 @@
       <c r="E100" t="s">
         <v>19</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3517,7 +3567,7 @@
       <c r="E101" t="s">
         <v>9</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3537,7 +3587,7 @@
       <c r="E102" t="s">
         <v>9</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3557,7 +3607,7 @@
       <c r="E103" t="s">
         <v>14</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3577,7 +3627,7 @@
       <c r="E104" t="s">
         <v>12</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3597,7 +3647,7 @@
       <c r="E105" t="s">
         <v>9</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3617,7 +3667,7 @@
       <c r="E106" t="s">
         <v>19</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3637,7 +3687,7 @@
       <c r="E107" t="s">
         <v>34</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3657,7 +3707,7 @@
       <c r="E108" t="s">
         <v>17</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3677,7 +3727,7 @@
       <c r="E109" t="s">
         <v>21</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3697,7 +3747,7 @@
       <c r="E110" t="s">
         <v>19</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3717,7 +3767,7 @@
       <c r="E111" t="s">
         <v>74</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3737,7 +3787,7 @@
       <c r="E112" t="s">
         <v>17</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3757,7 +3807,7 @@
       <c r="E113" t="s">
         <v>27</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3777,7 +3827,7 @@
       <c r="E114" t="s">
         <v>25</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3797,7 +3847,7 @@
       <c r="E115" t="s">
         <v>14</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3817,7 +3867,7 @@
       <c r="E116" t="s">
         <v>62</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3837,7 +3887,7 @@
       <c r="E117" t="s">
         <v>14</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3857,7 +3907,7 @@
       <c r="E118" t="s">
         <v>23</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3877,7 +3927,7 @@
       <c r="E119" t="s">
         <v>23</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3897,7 +3947,7 @@
       <c r="E120" t="s">
         <v>9</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3917,7 +3967,7 @@
       <c r="E121" t="s">
         <v>12</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3937,7 +3987,7 @@
       <c r="E122" t="s">
         <v>109</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3957,7 +4007,7 @@
       <c r="E123" t="s">
         <v>34</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3977,7 +4027,7 @@
       <c r="E124" t="s">
         <v>23</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3997,7 +4047,7 @@
       <c r="E125" t="s">
         <v>12</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4017,7 +4067,7 @@
       <c r="E126" t="s">
         <v>49</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4037,7 +4087,7 @@
       <c r="E127" t="s">
         <v>9</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4057,7 +4107,7 @@
       <c r="E128" t="s">
         <v>74</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4077,7 +4127,7 @@
       <c r="E129" t="s">
         <v>14</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4097,7 +4147,7 @@
       <c r="E130" t="s">
         <v>9</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4117,7 +4167,7 @@
       <c r="E131" t="s">
         <v>25</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4137,7 +4187,7 @@
       <c r="E132" t="s">
         <v>83</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4157,7 +4207,7 @@
       <c r="E133" t="s">
         <v>19</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4177,7 +4227,7 @@
       <c r="E134" t="s">
         <v>164</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4197,7 +4247,7 @@
       <c r="E135" t="s">
         <v>19</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4217,7 +4267,7 @@
       <c r="E136" t="s">
         <v>109</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4237,7 +4287,7 @@
       <c r="E137" t="s">
         <v>21</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4257,7 +4307,7 @@
       <c r="E138" t="s">
         <v>17</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4277,7 +4327,7 @@
       <c r="E139" t="s">
         <v>23</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4297,7 +4347,7 @@
       <c r="E140" t="s">
         <v>23</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4317,7 +4367,7 @@
       <c r="E141" t="s">
         <v>23</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4337,7 +4387,7 @@
       <c r="E142" t="s">
         <v>19</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4357,7 +4407,7 @@
       <c r="E143" t="s">
         <v>74</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4377,7 +4427,7 @@
       <c r="E144" t="s">
         <v>25</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4397,7 +4447,7 @@
       <c r="E145" t="s">
         <v>9</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4417,7 +4467,7 @@
       <c r="E146" t="s">
         <v>109</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4437,7 +4487,7 @@
       <c r="E147" t="s">
         <v>83</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4457,7 +4507,7 @@
       <c r="E148" t="s">
         <v>14</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4477,7 +4527,7 @@
       <c r="E149" t="s">
         <v>17</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4497,7 +4547,7 @@
       <c r="E150" t="s">
         <v>23</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4517,7 +4567,7 @@
       <c r="E151" t="s">
         <v>19</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4537,7 +4587,7 @@
       <c r="E152" t="s">
         <v>9</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4557,7 +4607,7 @@
       <c r="E153" t="s">
         <v>109</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4577,7 +4627,7 @@
       <c r="E154" t="s">
         <v>27</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4597,7 +4647,7 @@
       <c r="E155" t="s">
         <v>74</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4617,7 +4667,7 @@
       <c r="E156" t="s">
         <v>19</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4637,7 +4687,7 @@
       <c r="E157" t="s">
         <v>9</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4657,7 +4707,7 @@
       <c r="E158" t="s">
         <v>9</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4677,7 +4727,7 @@
       <c r="E159" t="s">
         <v>14</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4697,7 +4747,7 @@
       <c r="E160" t="s">
         <v>21</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4717,7 +4767,7 @@
       <c r="E161" t="s">
         <v>12</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4737,7 +4787,7 @@
       <c r="E162" t="s">
         <v>25</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4757,7 +4807,7 @@
       <c r="E163" t="s">
         <v>40</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4777,7 +4827,7 @@
       <c r="E164" t="s">
         <v>9</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4797,7 +4847,7 @@
       <c r="E165" t="s">
         <v>17</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4817,7 +4867,7 @@
       <c r="E166" t="s">
         <v>14</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4837,7 +4887,7 @@
       <c r="E167" t="s">
         <v>83</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4857,7 +4907,7 @@
       <c r="E168" t="s">
         <v>40</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4877,7 +4927,7 @@
       <c r="E169" t="s">
         <v>62</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="2">
         <v>1</v>
       </c>
     </row>
@@ -4897,13 +4947,13 @@
       <c r="E170" t="s">
         <v>34</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:G170">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="F2:H170">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4920,9 +4970,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5379DDA0-EC13-40E1-B814-3E7784EBE063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A03A67C3-B2E0-401E-8D30-243FA2D83F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -1522,7 +1522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.36686390532544377</v>
+        <v>0.37278106508875741</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2128,7 +2128,7 @@
         <v>9</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A03A67C3-B2E0-401E-8D30-243FA2D83F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE587ABE-0232-4E14-962F-F986377B87A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grind-169-checklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -637,7 +649,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1517,26 +1529,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1560,17 +1572,17 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.37278106508875741</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1591,7 +1603,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1611,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1631,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1651,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1671,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1691,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1711,7 +1723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1731,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1751,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1771,7 +1783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1791,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1811,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1831,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1871,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1891,7 +1903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1911,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1931,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1951,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1971,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1991,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2011,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2031,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2051,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2071,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2091,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2111,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2131,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2171,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2191,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2211,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2231,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2251,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2268,10 +2280,10 @@
         <v>23</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2291,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2311,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2331,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2371,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2391,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2411,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2431,7 +2443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2451,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2471,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2511,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2531,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2551,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2571,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2591,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2611,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2631,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2651,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2671,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2691,7 +2703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2711,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2731,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2751,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2771,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2791,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2811,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2831,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2851,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2871,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2911,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2931,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2948,10 +2960,10 @@
         <v>62</v>
       </c>
       <c r="F70" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2991,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3011,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3031,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3071,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3091,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3111,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3151,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3171,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3191,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3211,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3231,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3251,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3271,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3291,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3311,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3331,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3371,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3391,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3411,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3431,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3471,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3491,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3511,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3531,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3551,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3571,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3591,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3611,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3631,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3651,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3671,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3691,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3711,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3731,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3751,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3771,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3791,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3811,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3831,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3851,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3871,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3891,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3911,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3931,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3951,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3971,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3991,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4011,7 +4023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4031,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4051,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4071,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4091,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4111,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4151,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4171,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4191,7 +4203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4211,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4231,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4251,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4271,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4291,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4311,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4331,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4351,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4371,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4391,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4411,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4431,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4451,7 +4463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4471,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4491,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4511,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4531,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4551,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4571,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4591,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4611,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4631,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4651,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4671,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4691,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4711,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4731,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4751,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4771,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4791,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4811,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4831,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4851,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4871,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4891,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4911,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4931,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE587ABE-0232-4E14-962F-F986377B87A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96A19AF-A4DE-4F34-9F55-1A3CF3B57358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,8 +1533,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.38461538461538464</v>
+        <v>0.39053254437869822</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -2300,7 +2300,7 @@
         <v>21</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96A19AF-A4DE-4F34-9F55-1A3CF3B57358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DDFE19-58C8-454A-A31C-AFB9C4FE8D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,8 +1533,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.39053254437869822</v>
+        <v>0.40236686390532544</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -2500,7 +2500,7 @@
         <v>9</v>
       </c>
       <c r="F47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -2520,7 +2520,7 @@
         <v>74</v>
       </c>
       <c r="F48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DDFE19-58C8-454A-A31C-AFB9C4FE8D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C2AF20-CD16-4BC0-846E-37B4A698B2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,8 +1533,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.40236686390532544</v>
+        <v>0.40828402366863903</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -2560,7 +2560,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C2AF20-CD16-4BC0-846E-37B4A698B2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50CE5CF-38FB-454B-A4A1-B186AB548539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,8 +1533,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.40828402366863903</v>
+        <v>0.41420118343195267</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -2580,7 +2580,7 @@
         <v>23</v>
       </c>
       <c r="F51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50CE5CF-38FB-454B-A4A1-B186AB548539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE579E87-C5B8-47CA-9A27-1A3DD1A6D15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,8 +1533,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.41420118343195267</v>
+        <v>0.42011834319526625</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -3040,7 +3040,7 @@
         <v>34</v>
       </c>
       <c r="F74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE579E87-C5B8-47CA-9A27-1A3DD1A6D15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5A2414-5E43-48B1-9333-942CA2D05E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,8 +1533,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.42011834319526625</v>
+        <v>0.42603550295857989</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -2100,7 +2100,7 @@
         <v>49</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5A2414-5E43-48B1-9333-942CA2D05E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0EA058-2CFA-4ED8-B72C-C1049F17867F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,8 +1533,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1572,14 +1572,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.42603550295857989</v>
+        <v>0.4437869822485207</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -2940,7 +2940,7 @@
         <v>9</v>
       </c>
       <c r="F69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -3080,7 +3080,7 @@
         <v>27</v>
       </c>
       <c r="F76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -3180,7 +3180,7 @@
         <v>12</v>
       </c>
       <c r="F81" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0EA058-2CFA-4ED8-B72C-C1049F17867F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122FFCDB-62D7-4DC4-9F45-9A2BC30B903A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grind-169-checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1533,22 +1521,22 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="2"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
-    <col min="9" max="9" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1572,17 +1560,17 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.4437869822485207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>0.44970414201183434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1603,7 +1591,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1623,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1643,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1663,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1683,7 +1671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1703,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1723,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1743,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1763,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1783,7 +1771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1803,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1823,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1843,7 +1831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1863,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1883,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1903,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1923,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1943,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1963,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1983,7 +1971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2003,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2023,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2043,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2063,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2083,7 +2071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2103,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2123,7 +2111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2143,7 +2131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2163,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2183,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2203,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2223,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2243,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2263,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2283,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2303,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2323,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2343,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2363,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2383,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2403,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2423,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2443,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2463,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2483,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2503,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2523,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2543,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2563,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2583,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2603,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2623,7 +2611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2643,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2663,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2683,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2703,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2723,7 +2711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2743,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2763,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2783,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2803,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2823,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2843,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2863,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2883,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2903,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2923,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2943,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2963,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2983,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3003,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3023,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3043,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3063,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3083,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3103,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3123,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3143,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3163,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3183,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3203,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3220,10 +3208,10 @@
         <v>62</v>
       </c>
       <c r="F83" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3243,7 +3231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3263,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3283,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3303,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3323,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3343,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3363,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3383,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3403,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3423,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3443,7 +3431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3463,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3483,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3503,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3523,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3543,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3563,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3583,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3603,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3623,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3643,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3663,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3683,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3703,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3723,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3743,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3763,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3783,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3803,7 +3791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3823,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3843,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3863,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3883,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3903,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3923,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3943,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3963,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3983,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4003,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4023,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4043,7 +4031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4063,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4083,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4103,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4123,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4143,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4163,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4183,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4203,7 +4191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4223,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4243,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4263,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4283,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4303,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4323,7 +4311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4343,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4363,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4383,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4403,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4423,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4443,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4463,7 +4451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4483,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4503,7 +4491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4523,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4543,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4563,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4583,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4603,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4623,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4643,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4663,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4683,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4703,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4723,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4743,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4763,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4783,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4803,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4823,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4843,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4863,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4883,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4903,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4923,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4943,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122FFCDB-62D7-4DC4-9F45-9A2BC30B903A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2BF451-B4B6-4B2B-A29B-7AC4C01C13BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,8 +1521,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.44970414201183434</v>
+        <v>0.45562130177514792</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2888,7 +2888,7 @@
         <v>25</v>
       </c>
       <c r="F67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2BF451-B4B6-4B2B-A29B-7AC4C01C13BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D99A31-97C7-4BB3-8891-7C5F1B6FEB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,8 +1521,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.45562130177514792</v>
+        <v>0.46153846153846156</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3008,7 +3008,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D99A31-97C7-4BB3-8891-7C5F1B6FEB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B994229-0B5F-4A69-98FE-0802A68E8669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,8 +1521,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.46153846153846156</v>
+        <v>0.46745562130177515</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3448,7 +3448,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B994229-0B5F-4A69-98FE-0802A68E8669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE4F2E-A955-452B-A75E-17A92E8DEA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,8 +1521,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.46745562130177515</v>
+        <v>0.47337278106508873</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2708,7 +2708,7 @@
         <v>19</v>
       </c>
       <c r="F58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE4F2E-A955-452B-A75E-17A92E8DEA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A5DECE-C3A8-47C1-BC86-98F1537CC3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,8 +1521,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.47337278106508873</v>
+        <v>0.47928994082840237</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3148,7 +3148,7 @@
         <v>109</v>
       </c>
       <c r="F80" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A5DECE-C3A8-47C1-BC86-98F1537CC3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7502403B-AD7F-4279-9ADA-D9C5541CA162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,8 +1521,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.47928994082840237</v>
+        <v>0.48520710059171596</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
         <v>17</v>
       </c>
       <c r="F112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7502403B-AD7F-4279-9ADA-D9C5541CA162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE60454-0187-47F8-A927-346356A472A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,8 +1521,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H113" sqref="H113"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.48520710059171596</v>
+        <v>0.4911242603550296</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3328,7 +3328,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE60454-0187-47F8-A927-346356A472A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434E3DB6-20E7-48E3-A5CB-4BA4C090DF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1522,7 +1522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.4911242603550296</v>
+        <v>0.49704142011834318</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3388,7 +3388,7 @@
         <v>34</v>
       </c>
       <c r="F92" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434E3DB6-20E7-48E3-A5CB-4BA4C090DF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4B134D-7C41-4F29-A722-00F69CF3420E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,8 +1521,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,14 +1560,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>202</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.49704142011834318</v>
+        <v>0.50295857988165682</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3408,7 +3408,7 @@
         <v>19</v>
       </c>
       <c r="F93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4B134D-7C41-4F29-A722-00F69CF3420E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F5DF6-FA67-4E66-B9CA-404C0BB9F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="203">
   <si>
     <t>Number</t>
   </si>
@@ -521,9 +521,6 @@
   </si>
   <si>
     <t>Pow(x n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Medium</t>
   </si>
   <si>
     <t>Search a 2D Matrix</t>
@@ -1521,8 +1518,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,18 +1553,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.50295857988165682</v>
+        <v>0.50887573964497046</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4259,7 +4256,7 @@
         <v>166</v>
       </c>
       <c r="C136" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
         <v>11</v>
@@ -4276,7 +4273,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C137" t="s">
         <v>29</v>
@@ -4296,7 +4293,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C138" t="s">
         <v>29</v>
@@ -4316,7 +4313,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C139" t="s">
         <v>67</v>
@@ -4336,7 +4333,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C140" t="s">
         <v>67</v>
@@ -4356,7 +4353,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C141" t="s">
         <v>67</v>
@@ -4376,7 +4373,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -4388,7 +4385,7 @@
         <v>19</v>
       </c>
       <c r="F142" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4396,7 +4393,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -4416,7 +4413,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -4436,7 +4433,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -4456,7 +4453,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
@@ -4476,7 +4473,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -4496,7 +4493,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -4516,7 +4513,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -4536,7 +4533,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -4556,7 +4553,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C151" t="s">
         <v>29</v>
@@ -4576,7 +4573,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C152" t="s">
         <v>67</v>
@@ -4596,7 +4593,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -4616,7 +4613,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -4636,7 +4633,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
@@ -4656,7 +4653,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -4676,7 +4673,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -4696,7 +4693,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -4716,7 +4713,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -4736,7 +4733,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C160" t="s">
         <v>29</v>
@@ -4756,7 +4753,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C161" t="s">
         <v>29</v>
@@ -4776,7 +4773,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -4796,7 +4793,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -4816,7 +4813,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -4836,7 +4833,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C165" t="s">
         <v>67</v>
@@ -4856,7 +4853,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C166" t="s">
         <v>67</v>
@@ -4876,7 +4873,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C167" t="s">
         <v>67</v>
@@ -4896,7 +4893,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C168" t="s">
         <v>67</v>
@@ -4916,7 +4913,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C169" t="s">
         <v>67</v>
@@ -4936,7 +4933,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C170" t="s">
         <v>67</v>

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F5DF6-FA67-4E66-B9CA-404C0BB9F718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC1CCC3-1815-4F3C-8323-2543D2387A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1518,8 +1518,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E136" sqref="E136"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,14 +1557,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.50887573964497046</v>
+        <v>0.51479289940828399</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3905,7 +3905,7 @@
         <v>23</v>
       </c>
       <c r="F118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC1CCC3-1815-4F3C-8323-2543D2387A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1719F447-8292-43B8-BFF1-4E666EDD3FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1518,8 +1518,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G117" sqref="G117"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,14 +1557,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.51479289940828399</v>
+        <v>0.52071005917159763</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3485,7 +3485,7 @@
         <v>23</v>
       </c>
       <c r="F97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1719F447-8292-43B8-BFF1-4E666EDD3FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AA999C-790C-42AA-964B-EB94B6D97B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grind-169-checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1518,22 +1530,22 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1557,17 +1569,17 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.52071005917159763</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>0.53254437869822491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1588,7 +1600,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1608,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1628,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1688,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1708,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1728,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1748,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1768,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1788,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1808,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1828,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1848,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1888,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1908,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1928,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1948,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1968,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1988,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2008,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2048,7 +2060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2068,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2088,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2108,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2128,7 +2140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2148,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2168,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2228,7 +2240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2248,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2268,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2288,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2368,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2388,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2408,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2428,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2448,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2468,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2488,7 +2500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2508,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2528,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2548,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2568,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2588,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2608,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2628,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2648,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2668,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2688,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2708,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2728,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2748,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2788,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2808,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2848,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2868,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2908,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2928,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2948,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2968,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2988,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3008,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3028,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3048,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3068,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3088,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3108,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3128,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3148,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3168,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3188,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3208,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3228,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3248,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3268,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3288,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3308,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3328,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3348,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3388,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3408,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3428,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3448,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3468,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3488,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3508,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3528,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3548,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3568,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3588,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3608,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3628,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3648,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3668,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3688,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3708,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3728,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3748,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3768,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3788,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3808,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3828,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3848,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3868,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3888,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3908,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3928,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3948,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3988,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4008,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4028,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4048,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4068,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4088,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4108,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4128,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4148,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4168,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4188,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4208,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4228,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4248,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4268,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4288,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4308,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4328,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4348,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4368,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4388,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4408,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4428,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4448,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4468,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4488,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4508,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4528,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4548,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4568,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4588,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4608,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4628,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4645,10 +4657,10 @@
         <v>74</v>
       </c>
       <c r="F155" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4668,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4688,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4708,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4728,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4748,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4768,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4788,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4808,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4825,10 +4837,10 @@
         <v>9</v>
       </c>
       <c r="F164" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4848,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4868,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4888,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4908,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4928,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AA999C-790C-42AA-964B-EB94B6D97B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECAE424-C6E8-4A2C-9368-48BF86CEEE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grind-169-checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1530,22 +1518,22 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="2"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
-    <col min="9" max="9" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1569,17 +1557,17 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.53254437869822491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1600,7 +1588,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1620,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1640,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1660,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1680,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1700,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1720,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1740,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1760,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1780,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1800,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1820,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1840,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1860,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1880,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1900,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1920,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1940,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1960,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1980,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2000,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2020,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2040,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2060,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2080,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2100,7 +2088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2120,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2140,7 +2128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2160,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2180,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2200,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2220,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2240,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2260,7 +2248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2280,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2300,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2320,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2340,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2360,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2380,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2400,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2420,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2440,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2457,10 +2445,10 @@
         <v>12</v>
       </c>
       <c r="F45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2480,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2500,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2520,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2540,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2560,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2580,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2600,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2620,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2640,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2660,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2680,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2700,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2720,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2740,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2760,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2780,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2800,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2820,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2840,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2860,7 +2848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2880,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2900,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2920,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2940,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2960,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2980,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3000,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3020,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3040,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3060,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3080,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3100,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3120,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3140,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3160,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3180,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3200,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3220,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3240,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3260,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3280,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3300,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3320,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3340,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3360,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3380,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3400,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3420,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3440,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3460,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3480,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3500,7 +3488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3520,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3540,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3560,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3580,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3600,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3620,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3640,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3660,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3680,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3700,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3720,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3740,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3760,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3780,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3800,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3820,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3840,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3860,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3880,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3900,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3920,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3940,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3960,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3980,7 +3968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4000,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4020,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4040,7 +4028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4060,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4080,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4100,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4120,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4140,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4160,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4180,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4200,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4220,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4240,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4260,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4280,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4300,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4320,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4340,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4360,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4380,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4400,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4420,7 +4408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4440,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4460,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4480,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4500,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4520,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4540,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4560,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4580,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4600,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4620,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4640,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4660,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4680,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4700,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4720,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4740,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4760,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4780,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4800,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4820,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4840,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4860,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4880,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4900,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4920,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4940,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECAE424-C6E8-4A2C-9368-48BF86CEEE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124FE624-15B3-4FAB-BC18-8C561CFEC45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1518,8 +1518,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,14 +1557,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.53846153846153844</v>
+        <v>0.54437869822485208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2665,7 +2665,7 @@
         <v>83</v>
       </c>
       <c r="F56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124FE624-15B3-4FAB-BC18-8C561CFEC45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFE4183-CF12-4E82-8702-32B6F1C8A747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1518,8 +1518,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,14 +1557,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.54437869822485208</v>
+        <v>0.55029585798816572</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>12</v>
       </c>
       <c r="F77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFE4183-CF12-4E82-8702-32B6F1C8A747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68940A5C-65AF-4AB2-B872-E76E3AF3A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1518,8 +1518,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,14 +1557,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.55029585798816572</v>
+        <v>0.55621301775147924</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3345,7 +3345,7 @@
         <v>23</v>
       </c>
       <c r="F90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68940A5C-65AF-4AB2-B872-E76E3AF3A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE896A5-0748-4157-AB0A-EEE60D69C7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1518,8 +1518,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,14 +1557,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.55621301775147924</v>
+        <v>0.56213017751479288</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3545,7 +3545,7 @@
         <v>19</v>
       </c>
       <c r="F100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE896A5-0748-4157-AB0A-EEE60D69C7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8760AA-75B4-4B61-A434-A2C8A990FF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1518,8 +1518,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H102" sqref="H102"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,14 +1557,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.56213017751479288</v>
+        <v>0.56804733727810652</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4205,7 +4205,7 @@
         <v>19</v>
       </c>
       <c r="F133" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8760AA-75B4-4B61-A434-A2C8A990FF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0506A90B-E12C-4F66-B99B-8F6CF3E95D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="204">
   <si>
     <t>Number</t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t>Num Done</t>
+  </si>
+  <si>
+    <t>Floyd Cycle Detection</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1521,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,14 +1560,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.56804733727810652</v>
+        <v>0.57396449704142016</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3362,10 +3365,10 @@
         <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="F91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0506A90B-E12C-4F66-B99B-8F6CF3E95D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E642AE-E6CC-46B7-BEEA-623E7798C40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="205">
   <si>
     <t>Number</t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t>Floyd Cycle Detection</t>
+  </si>
+  <si>
+    <t>Kahn Topological Sort</t>
   </si>
 </sst>
 </file>
@@ -1521,8 +1524,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4345,7 +4348,7 @@
         <v>88</v>
       </c>
       <c r="E140" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="F140" s="2">
         <v>0</v>

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E642AE-E6CC-46B7-BEEA-623E7798C40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568019A-DB9F-425A-9C7F-4E276CC6277A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1525,7 +1525,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
+      <selection pane="bottomLeft" activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,14 +1563,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.57396449704142016</v>
+        <v>0.57988165680473369</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4351,7 +4351,7 @@
         <v>204</v>
       </c>
       <c r="F140" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A568019A-DB9F-425A-9C7F-4E276CC6277A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5FD6C5-5FA2-479A-9751-72C3D1361CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1524,8 +1524,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H140" sqref="H140"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,14 +1563,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.57988165680473369</v>
+        <v>0.58579881656804733</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4671,7 +4671,7 @@
         <v>19</v>
       </c>
       <c r="F156" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5FD6C5-5FA2-479A-9751-72C3D1361CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C19C9F8-62F6-45CB-ABF6-9821CEA28AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1524,8 +1524,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H156" sqref="H156"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,14 +1563,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.58579881656804733</v>
+        <v>0.59171597633136097</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4571,7 +4571,7 @@
         <v>19</v>
       </c>
       <c r="F151" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C19C9F8-62F6-45CB-ABF6-9821CEA28AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1885E30C-04F7-434D-86E0-51D87FF65B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="206">
   <si>
     <t>Number</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>Kahn Topological Sort</t>
+  </si>
+  <si>
+    <t>WIP</t>
   </si>
 </sst>
 </file>
@@ -1524,8 +1527,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I148" sqref="I148"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I149" sqref="I149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3670,8 +3673,8 @@
       <c r="E106" t="s">
         <v>19</v>
       </c>
-      <c r="F106" s="2">
-        <v>0</v>
+      <c r="F106" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1885E30C-04F7-434D-86E0-51D87FF65B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1239A013-896E-49E5-8F1C-7630071F00D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,8 +1527,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I149" sqref="I149"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,14 +1566,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.59171597633136097</v>
+        <v>0.59763313609467461</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>17</v>
       </c>
       <c r="F59" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1239A013-896E-49E5-8F1C-7630071F00D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B998F95-242F-4C1D-9F60-C77452FC50C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,8 +1527,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,14 +1566,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.59763313609467461</v>
+        <v>0.60355029585798814</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4634,7 +4634,7 @@
         <v>27</v>
       </c>
       <c r="F154" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B998F95-242F-4C1D-9F60-C77452FC50C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FDC12-8F70-4B49-9B46-3FAF0D5FE754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="grind-169-checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1527,8 +1528,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I148" sqref="I148"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,14 +1567,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.60355029585798814</v>
+        <v>0.60946745562130178</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4294,7 +4295,7 @@
         <v>21</v>
       </c>
       <c r="F137" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FDC12-8F70-4B49-9B46-3FAF0D5FE754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA7AC2E-1C22-497D-9FEC-AD03C7835216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1528,8 +1528,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H139" sqref="H139"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,14 +1567,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.60946745562130178</v>
+        <v>0.61538461538461542</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3815,7 +3815,7 @@
         <v>27</v>
       </c>
       <c r="F113" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA7AC2E-1C22-497D-9FEC-AD03C7835216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC989E1-AA40-4768-8ABE-152BF5DD34FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1528,8 +1528,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,14 +1567,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.61538461538461542</v>
+        <v>0.62130177514792895</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2415,7 +2415,7 @@
         <v>17</v>
       </c>
       <c r="F43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC989E1-AA40-4768-8ABE-152BF5DD34FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3ED654-2C09-4B2A-A6A1-20519480B1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-72" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grind-169-checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1528,8 +1527,8 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,14 +1566,14 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.62130177514792895</v>
+        <v>0.62721893491124259</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3955,7 +3954,7 @@
         <v>9</v>
       </c>
       <c r="F120" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3ED654-2C09-4B2A-A6A1-20519480B1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C26A25-EEAE-43A3-947F-05F8D5FEEF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-72" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grind-169-checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="206">
   <si>
     <t>Number</t>
   </si>
@@ -1527,22 +1539,22 @@
   <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H118" sqref="H118"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="2"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1588,7 @@
         <v>0.62721893491124259</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1597,7 +1609,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1617,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1637,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1657,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1677,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1697,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1717,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1737,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1777,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1797,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1817,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1837,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1857,7 +1869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1877,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1897,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1917,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1937,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1957,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1977,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1997,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2017,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2037,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2057,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2077,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2117,7 +2129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2137,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2157,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2177,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2217,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2237,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2257,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2277,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2297,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2317,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2337,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2357,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2377,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2397,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2417,7 +2429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2437,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2457,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2477,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2497,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2517,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2537,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2557,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2577,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2597,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2617,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2637,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2657,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2677,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2697,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2737,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2757,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2777,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2817,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2837,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2857,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2877,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2897,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2917,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2937,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2957,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2977,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3017,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3037,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3057,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3077,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3097,7 +3109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3117,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3137,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3157,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3177,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3197,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3217,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3237,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3277,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3317,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3337,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3357,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3377,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3397,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3417,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3437,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3457,7 +3469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3477,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3497,7 +3509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3517,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3537,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3557,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3577,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3597,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3617,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3637,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3657,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3677,7 +3689,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3693,11 +3705,11 @@
       <c r="E107" t="s">
         <v>34</v>
       </c>
-      <c r="F107" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3717,7 +3729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3737,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3757,7 +3769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3777,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3797,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3817,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3837,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3877,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3897,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3917,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3937,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3957,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3977,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3997,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4017,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4037,7 +4049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4057,7 +4069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4077,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4097,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4117,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4137,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4157,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4177,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4197,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4217,7 +4229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4237,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4257,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4277,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4297,7 +4309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4317,7 +4329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4337,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4357,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4377,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4397,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4417,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4437,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4477,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4497,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4557,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4577,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4597,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4637,7 +4649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4657,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4697,7 +4709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4717,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4737,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4757,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4777,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4797,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4817,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4837,7 +4849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4857,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4877,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4897,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4917,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4937,7 +4949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>

--- a/grind-169-checklist.xlsx
+++ b/grind-169-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.hu\Documents\GitHub\self-study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivanh\Documents\LocalWorkCopy\self-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C26A25-EEAE-43A3-947F-05F8D5FEEF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6597E03-DDAB-4FA0-8EFE-63B8D13385A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grind-169-checklist" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1540,21 +1537,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
+      <selection pane="bottomLeft" activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="54.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="2"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" customWidth="1"/>
-    <col min="9" max="9" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" s="8" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1578,17 +1575,17 @@
       </c>
       <c r="H1" s="5">
         <f>COUNTIF(F2:F170, 1)</f>
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>201</v>
       </c>
       <c r="J1" s="7">
         <f>H1/169</f>
-        <v>0.62721893491124259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>0.63313609467455623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1609,7 +1606,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1629,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1649,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1669,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1689,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1709,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1729,7 +1726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1749,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1769,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1789,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1809,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1829,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1849,7 +1846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1869,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1889,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1909,7 +1906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1929,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1949,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1969,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1989,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2009,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2029,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2049,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2069,7 +2066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2089,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2109,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2129,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2149,7 +2146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2169,7 +2166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2189,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2209,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2229,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2249,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2269,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2289,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2309,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2329,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2349,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2369,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2389,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2409,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2429,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2449,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2469,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2489,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2509,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2529,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2549,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2569,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2589,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2609,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2629,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2649,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2669,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2709,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2729,7 +2726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2749,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2769,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2789,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2809,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2829,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2849,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2869,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2889,7 +2886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2909,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2929,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2949,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2969,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2989,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3009,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3029,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3049,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3069,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3089,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3109,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3129,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3149,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3169,7 +3166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3189,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3209,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3229,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3249,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3269,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3289,7 +3286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3309,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3329,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3349,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3369,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3389,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3409,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3429,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3449,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3469,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3489,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3509,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3529,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3549,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3569,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3589,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3609,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3629,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3649,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3669,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3689,7 +3686,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3709,7 +3706,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3729,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3749,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3769,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3789,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3809,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3829,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3849,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3869,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3889,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3909,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3929,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3949,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3969,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3989,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4009,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4029,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4049,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4069,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4089,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4109,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4129,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4146,10 +4143,10 @@
         <v>14</v>
       </c>
       <c r="F129" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4169,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4189,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4209,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4229,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4249,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4269,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4289,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4309,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4329,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4349,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4369,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4389,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4409,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4429,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4449,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4469,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4489,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4509,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4529,7 +4526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4549,7 +4546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4569,7 +4566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4589,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4609,7 +4606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4629,7 +4626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4649,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4669,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4689,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4709,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4729,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4749,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4769,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4789,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4809,7 +4806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4829,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4849,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4869,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4889,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4929,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4949,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
